--- a/graph_generation/results_pathCompare/gpt3.5/level_7/k_0.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_7/k_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>prompt</t>
   </si>
@@ -26,400 +26,394 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 5 0 0 0
+ I 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ F 0 5 0 0 3 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node M? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 5 3 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 2 0 0 0 0 0 0
+ D 0 2 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 1 0 0 0
+ G 0 0 0 0 0 0 0 5 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 4 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 3
+ K 0 0 0 0 0 0 0 3 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node M, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 3 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ B 3 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 4 0 0 4 0
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0
  D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
- F 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 5 0 0 0 0
+ E 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0
+ F 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 5 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 4 0
  L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node M? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 5 0 3 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 4 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 5 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 3 0 0 0 0 0
- E 0 4 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 3 0 0 3 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 4 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 5 1 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 2
- L 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0
-Let's list down all the possible paths from node A to node M, and compare to get the answer.
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ E 0 2 0 2 0 4 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ I 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 3 0 0 4 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ L 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ A 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 2 0 0 5 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 1 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ F 0 1 0 0 2 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 5 0 0 3 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 5 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 4 0 0 5 0 0 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 4 0 0 5 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 0 0 0 4 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 4 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 3 0 0 0 0 0
  H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 1 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 5 0 0 4 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 4 0 0 4 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
- F 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0 0
- K 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node M? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 2 0 3 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 1 0 0 0 0 0 0 0
- D 4 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 3 0 5 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 2 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 5 0 0
- I 0 0 0 0 0 1 0 4 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 1
- K 0 0 0 0 0 0 0 0 0 0 0 3 0
- L 0 0 0 0 0 0 0 0 3 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0
-Let's list down all the possible paths from node A to node M, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 3 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 0 0 0 3 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 4 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; K -&gt; M</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; J -&gt; M</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; I -&gt; M -&gt; N -&gt; O</t>
-  </si>
-  <si>
-    <t>All possible paths from node A to node P:
-1. A -&gt; E -&gt; I -&gt; J -&gt; P (Total cost = 3 + 2 + 3 + 1 = 9)
-2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (Total cost = 4 + 2 + 5 + 5 + 4 = 20)
-3. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; O -&gt; P (Total cost = 4 + 2 + 5 + 5 + 4 + 5 + 3 = 28)
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; M -&gt; N -&gt; P (Total cost = 4 + 2 + 5 + 5 + 4 + 5 + 3 = 28)
-5. A -&gt; B -&gt; C -&gt; D -&gt; G -&gt; K -&gt; O -&gt; P (Total cost = 4 + 2 + 5 + 5 + 4 + 4 + 3 = 27)
-6. A -&gt; B -&gt; C -&gt; D -&gt; G -&gt; M -&gt; O -&gt; P (Total cost = 4 + 2 + 5 + 5 + 4 + 4 + 3 = 27)
-7. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (Total cost = 4 + 2 + 5 + 5 + 4 = 20)
-8. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P (Total cost = 4 + 2 + 5 + 4 + 4 + 3 = 22)
-9. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; M -&gt; O -&gt; P (Total cost = 4 + 2 + 5 + 4 + 4 + 3 = 22)
-10. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; N -&gt; P (Total cost = 4 + 2 + 5 + 4 + 4 + 3 = 22)
-11. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; P (Total cost = 4 + 2 + 5 + 4 + 4 + 4 = 23)
-12. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; M -&gt; P (Total cost = 4 + 2 + 5 + 4 + 4 + 4 = 23)
-13. A -&gt; E -&gt; I -&gt; P (Total cost = 3 + 2 + 5 = 10)
-14. A -&gt; B -&gt; C -&gt; F -&gt; P (Total cost = 4 + 2 + 5 = 11)
-15. A -&gt; B -&gt; C -&gt; D -&gt; P (Total cost = 4 + 2 + 5 = 11)
-16. A -&gt; B -&gt; C -&gt; G -&gt; P (Total cost = 4 + 2 + 4 = 10)
-The least cost path from node A to node P is: A -&gt; E -&gt; I -&gt; J -&gt; P with a total cost of 9.</t>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; M -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; J -&gt; M</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node O:
+1. A - B - C - G - O (Cost: 5 + 4 + 3 + 4 = 16)
+2. A - B - C - D - O (Cost: 5 + 4 + 3 = 12)
+3. A - B - C - D - H - O (Cost: 5 + 4 + 3 + 2 + 5 = 19)
+4. A - B - C - G - K - L - O (Cost: 5 + 4 + 3 + 4 + 5 + 5 = 26)
+5. A - B - C - D - H - I - J - N - O (Cost: 5 + 4 + 3 + 2 + 5 + 5 + 5 + 3 = 32)
+6. A - E - I - J - N - O (Cost: 2 + 5 + 5 + 5 + 3 = 20)
+7. A - F - J - N - O (Cost: 1 + 1 + 5 + 3 = 10)
+The least cost path from node A to node O is:
+A - F - J - N - O, with a cost of 10.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1) A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; I -&gt; O -&gt; P
+2) A -&gt; B -&gt; C -&gt; G -&gt; O -&gt; P
+3) A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O -&gt; P
+4) A -&gt; B -&gt; C -&gt; M -&gt; I -&gt; O -&gt; P
+5) A -&gt; B -&gt; C -&gt; M -&gt; N -&gt; O -&gt; P
+6) A -&gt; B -&gt; C -&gt; M -&gt; N -&gt; L -&gt; K -&gt; J -&gt; P
+Comparing the costs of these paths:
+1) Cost: 3 + 1 + 1 + 2 + 2 + 5 + 5 = 19
+2) Cost: 3 + 1 + 1 + 5 + 5 = 15
+3) Cost: 3 + 1 + 1 + 0 + 0 + 5 + 5 = 15
+4) Cost: 3 + 1 + 1 + 4 + 2 + 5 + 5 = 21
+5) Cost: 3 + 1 + 1 + 4 + 2 + 0 + 2 + 5 + 5 = 23
+6) Cost: 3 + 1 + 1 + 4 + 2 + 0 + 0 + 1 + 0 + 0 = 12
+Therefore, the least cost path from node A to node P is: A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; L -&gt; K -&gt; J -&gt; P.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node M are:
+1. A - B - D - L - M (cost = 5 + 2 + 4 + 5 = 16)
+2. A - C - D - L - M (cost = 3 + 4 + 4 + 5 = 16)
+3. A - D - L - M (cost = 2 + 4 + 5 = 11)
+4. A - E - F - J - M (cost = 4 + 1 + 3 + 3 = 11)
+5. A - C - G - H - I - J - M (cost = 3 + 2 + 1 + 3 + 2 + 3 = 14)
+6. A - D - E - F - J - M (cost = 2 + 4 + 1 + 3 + 3 = 13)
+7. A - C - G - H - I - J - L - M (cost = 3 + 5 + 3 + 2 + 3 + 4 + 5 = 25)
+The least cost path from node A to node M is path 3: A - D - L - M with a cost of 11.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can list down all the possible paths between the two nodes and calculate their costs. Then, we can compare the costs and determine the least cost path.
+Here are all the possible paths from node A to node P:
+1. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; P (Cost = 1 + 4 + 2 + 5 + 3 + 3 = 18)
+2. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; M -&gt; N -&gt; P (Cost = 1 + 4 + 2 + 5 + 5 + 1 + 3 = 21)
+3. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; O -&gt; P (Cost = 5 + 4 + 3 + 2 + 3 + 3 = 20)
+4. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; M -&gt; N -&gt; P (Cost = 5 + 4 + 3 + 2 + 5 + 1 + 3 = 23)
+5. A -&gt; E -&gt; F -&gt; J -&gt; I -&gt; O -&gt; P (Cost = 5 + 4 + 3 + 2 + 2 + 3 = 19)
+6. A -&gt; E -&gt; F -&gt; J -&gt; I -&gt; N -&gt; P (Cost = 5 + 4 + 3 + 2 + 2 + 3 = 19)
+7. A -&gt; E -&gt; K -&gt; L -&gt; P (Cost = 5 + 3 + 1 + 5 = 14)
+8. A -&gt; E -&gt; M -&gt; N -&gt; P (Cost = 5 + 5 + 1 + 3 = 14)
+9. A -&gt; P (Cost = 0)
+By comparing the costs, we can see that the least cost path from node A to node P is:
+A -&gt; E -&gt; K -&gt; L -&gt; P with a cost of 14.</t>
   </si>
   <si>
     <t>The possible paths from node A to node P are:
-1. A -&gt; E -&gt; I -&gt; N -&gt; P (total cost = 3 + 5 + 2 + 3 = 13)
-2. A -&gt; E -&gt; J -&gt; N -&gt; P (total cost = 3 + 5 + 3 + 3 = 14)
-3. A -&gt; F -&gt; G -&gt; K -&gt; N -&gt; P (total cost = 5 + 2 + 3 + 1 + 3 = 14)
-4. A -&gt; F -&gt; G -&gt; H -&gt; N -&gt; P (total cost = 5 + 2 + 3 + 5 + 3 = 18)
-Therefore, the least cost path from node A to node P is A -&gt; E -&gt; I -&gt; N -&gt; P, with a total cost of 13.</t>
-  </si>
-  <si>
-    <t>To find the least-cost path from node A to node M, we can use an algorithm called Dijkstra's Algorithm. This algorithm works by starting at the source node (in this case, node A) and iteratively finding the node with the minimum cost to reach it. 
-We will keep track of two arrays - "distances" and "visited". The "distances" array will store the minimum cost to reach each node from node A, and the "visited" array will keep track of whether we have visited a node or not. 
-Initially, all distances are set to infinity (except the distance from node A to itself, which is set to 0), and all nodes are marked as unvisited. At each iteration, we select the node with the minimum distance that has not been visited yet and update the distances of its neighboring nodes if the new path has a lower cost. We continue this process until we have visited all nodes or until we reach node M. 
-Here is the implementation of Dijkstra's Algorithm to find the least-cost path from node A to node M:
-1. Create an empty "distances" array and initialize it with infinity for all nodes except node A, which has a distance of 0.
-2. Create an empty "visited" array and initialize all nodes as unvisited.
-3. While node M is not visited:
-    a. Find the node with the minimum distance that has not been visited yet.
-    b. Mark this node as visited.
-    c. Update the distances of its neighboring nodes if the new path has a lower cost.
-4. Construct the least-cost path by starting at node M and backtracking using the updated distances until node A is reached.
-Let's start by initializing our arrays:
-distances = [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-visited = [False, False, False, False, False, False, False, False, False, False, False, False, False]
-Now let's perform the iterations:
-Iteration 1:
-Current node: A
-Visited: [True, False, False, False, False, False, False, False, False, False, False, False, False]
-Distances: [0, infinity, infinity, 3, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-Iteration 2:
-Current node: D
-Visited: [True, False, False, True, False, False, False, False, False, False, False, False, False]
-Distances: [0, infinity, infinity, 3, infinity, infinity, infinity, 6, infinity, infinity, infinity, infinity, infinity]
-Iteration 3:
-Current node: G
-Visited: [True, False, False, True, False, False, True, False, False, False, False, False, False]
-Distances: [0, infinity, infinity, 3, infinity, infinity, infinity, 6, infinity, infinity, infinity, infinity, infinity]
-Iteration 4:
-Current node: H
-Visited: [True, False, False, True, False, False, True, True, False, False, False, False, False]
-Distances: [0, infinity, infinity, 3, infinity, infinity, infinity, 6, 7, infinity, infinity, infinity, infinity]
-Iteration 5:
-Current node: I
-Visited: [True, False, False, True, False, False, True, True, False, False, False, False, True]
-Distances: [0, infinity, infinity, 3, infinity, infinity, infinity, 6, 7, 8, infinity, infinity, infinity]
-Iteration 6:
-Current node: J
-Visited: [True, False, False, True, False, False, True, True, False, True, False, False, True]
-Distances: [0, infinity, infinity, 3, infinity, infinity, infinity</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; F -&gt; K -&gt; P (Total cost = 4 + 2 + 1 + 5 = 12)
-2. A -&gt; B -&gt; F -&gt; E -&gt; P (Total cost = 4 + 2 + 3 = 9)
-3. A -&gt; B -&gt; F -&gt; K -&gt; O -&gt; P (Total cost = 4 + 2 + 1 + 5 + 5 = 17)
-4. A -&gt; F -&gt; K -&gt; P (Total cost = 5 + 1 + 5 = 11)
-5. A -&gt; F -&gt; E -&gt; P (Total cost = 5 + 3 = 8)
-6. A -&gt; F -&gt; K -&gt; O -&gt; P (Total cost = 5 + 1 + 5 + 5 = 16)
-The least cost path from node A to node P is A -&gt; F -&gt; E -&gt; P with a total cost of 8.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; P (cost: 3 + 2 + 3 + 2 + 1 = 11)
-2. A -&gt; E -&gt; I -&gt; N -&gt; P (cost: 3 + 2 + 3 + 1 = 9)
-3. A -&gt; E -&gt; P (cost: 3)
-4. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; M -&gt; N -&gt; P (cost: 2 + 1 + 5 + 4 + 4 + 3 + 2 + 1 = 22)
-5. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I -&gt; N -&gt; P (cost: 2 + 1 + 5 + 4 + 4 + 1 = 17)
-6. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; P (cost: 2 + 1 + 5 + 4 = 12)
-7. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; P (cost: 3 + 4 + 4 + 2 = 13)
-8. A -&gt; E -&gt; F -&gt; P (cost: 3 + 4 = 7)
-9. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P (cost: 3 + 4 + 4 + 5 + 3 + 2 + 1 = 22)
-10. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P (cost: 3 + 4 + 4 + 5 + 3 = 19)
-11. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; O -&gt; P (cost: 3 + 4 + 4 + 5 + 3 + 2 + 2 + 1 = 24)
-12. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost: 3 + 4 + 4 + 5 + 3 + 2 + 1 = 22)
-13. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (cost: 3 + 4 + 4 + 5 + 3 + 2 + 1 + 4 + 1 = 23)
-14. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; O -&gt; N -&gt; P (cost: 3 + 4 + 4 + 5 + 3 + 2 + 1 + 4 = 26)
-15. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; O -&gt; P (cost: 3 + 4 + 4 + 5 + 3 + 2 + 1 = 22)
-16. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; P (cost: 3 + 4 + 4 + 2 = 13)
-17. A -&gt; E -&gt; F -&gt; P (cost: 3 + 4 = 7)
-The least cost path from node A to node P is A -&gt; E -&gt; I -&gt; N -&gt; P with a cost of 9.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node P, we can use a graph traversal algorithm such as Dijkstra's algorithm or the Bellman-Ford algorithm. However, since the graph is relatively small, we can manually list down all the possible paths and compare their costs.
-Starting from node A, we can follow the path A -&gt; B -&gt; F -&gt; J -&gt; O -&gt; P, which has a total cost of 3 + 2 + 1 + 4 + 2 = 12.
-Another possible path is A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P, which has a total cost of 3 + 2 + 1 + 4 + 2 + 4 = 16.
-We can also consider the path A -&gt; E -&gt; K -&gt; O -&gt; P with a total cost of 4 + 5 + 4 + 2 = 15.
-Finally, we have the path A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P, which has a total cost of 3 + 2 + 1 + 4 + 2 + 4 + 4 + 4 + 2 = 26.
-Comparing these paths, we see that the least cost path from node A to node P is A -&gt; B -&gt; F -&gt; J -&gt; O -&gt; P, with a total cost of 12. Therefore, the sequence of nodes in the least cost path is: A -&gt; B -&gt; F -&gt; J -&gt; O -&gt; P.</t>
-  </si>
-  <si>
-    <t>Based on the provided adjacency matrix, the possible paths from node A to node P are as follows:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P (cost = 3 + 3 + 4 + 4 + 2 + 1 + 2 = 19)
-2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P (cost = 3 + 3 + 4 + 4 + 2 + 1 + 5 + 5 = 27)
-The path with the least cost from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P with a cost of 19. Therefore, the sequence of nodes is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; P.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A-P (cost: 0)
-2. A-B-F-J-K-P (cost: 2 + 2 + 5 + 3 = 12)
-3. A-E-F-J-K-P (cost: 3 + 4 + 5 + 3 = 15)
-4. A-C-D-H-M-N-P (cost: 3 + 3 + 4 + 3 = 13)
-5. A-C-I-M-N-P (cost: 3 + 1 + 3 = 7)
-6. A-C-D-H-L-P (cost: 3 + 4 + 2 + 1 = 10)
-7. A-C-I-M-N-O-P (cost: 3 + 1 + 3 + 4 = 11)
-The least cost path from node A to node P is A-C-I-M-N-P with a cost of 7.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node M:
-1. A - B - C - I - F - G - J - M (cost: 8)
-2. A - B - E - F - G - J - M (cost: 8)
-3. A - B - E - F - G - K - M (cost: 10)
-4. A - B - E - F - G - K - L - M (cost: 13)
-5. A - B - E - F - G - K - L - C - I - F - G - J - M (cost: 21)
-6. A - B - E - F - G - K - L - C - I - F - G - K - M (cost: 18)
-7. A - B - E - F - G - K - L - C - I - F - G - K - L - M (cost: 21)
-8. A - B - E - F - G - K - L - C - I - F - G - K - L - M (cost: 23)
-The least cost path from node A to node M is: A - B - E - F - G - J - M with a cost of 8.</t>
-  </si>
-  <si>
-    <t>Possible path 1: A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O (Cost: 1+3+2+3+3+5=17)
-Possible path 2: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O (Cost: 1+3+2+3+3+1+5=18)
-Possible path 3: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O (Cost: 1+3+2+3+3+1+1+5=19)
-Possible path 4: A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; I -&gt; H -&gt; O (Cost: 1+3+2+3+3+5+4+5=26)
-Possible path 5: A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; I -&gt; O (Cost: 1+3+2+3+3+5+1=18)
-Possible path 6: A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; I -&gt; O (Cost: 1+3+2+3+3+5+4+1=22)
-Possible path 7: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N -&gt; I -&gt; O (Cost: 1+3+2+3+5+3+5+4+1=27)
-Possible path 8: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N -&gt; I -&gt; O (Cost: 1+3+2+3+5+3+5+1+1=24)
-Possible path 9: A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; I -&gt; O (Cost: 1+3+2+3+5+1+4+1=20)
-Possible path 10: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; J -&gt; N -&gt; I -&gt; H -&gt; O (Cost: 1+3+2+3+5+3+5+4+5=31)
-The least cost path from node A to node O is path 1: A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O with a cost of 17.</t>
+1. A - B - F - J - N - P (Cost = 18)
+2. A - B - F - J - M - N - P (Cost = 19)
+3. A - B - F - K - O - P (Cost = 20)
+4. A - B - F - K - P (Cost = 20)
+5. A - B - F - L - O - P (Cost = 21)
+6. A - B - F - L - P (Cost = 24)
+7. A - E - F - J - N - P (Cost = 21)
+8. A - E - F - J - M - N - P (Cost = 22)
+9. A - E - F - K - O - P (Cost = 23)
+10. A - E - F - K - P (Cost = 23)
+11. A - E - F - L - O - P (Cost = 24)
+12. A - E - F - L - P (Cost = 27)
+13. A - E - H - I - N - P (Cost = 24)
+14. A - E - H - I - M - N - P (Cost = 25)
+15. A - E - H - I - N - J - N - P (Cost = 25)
+16. A - E - H - I - N - J - M - N - P (Cost = 26)
+17. A - E - H - I - N - J - G - K - O - P (Cost = 29)
+18. A - E - H - I - N - J - G - K - P (Cost = 29)
+The least cost path from node A to node P is A - B - F - J - N - P with a cost of 18.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node P are:
+1. A -&gt; B -&gt; F -&gt; G -&gt; O -&gt; P (Cost: 1 + 4 + 2 + 2 + 3 = 12)
+2. A -&gt; B -&gt; F -&gt; G -&gt; M -&gt; N -&gt; P (Cost: 1 + 4 + 2 + 3 + 3 = 13)
+3. A -&gt; B -&gt; F -&gt; G -&gt; N -&gt; P (Cost: 1 + 4 + 2 + 3 = 10)
+4. A -&gt; B -&gt;  F -&gt; G -&gt; O -&gt; L -&gt; P (Cost: 1 + 4 + 2 + 2 + 4 = 13)
+5. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; P (Cost: 1 + 4 + 2 + 2 + 4 = 13)
+6. A -&gt; E -&gt; F -&gt; G -&gt; O -&gt; P (Cost: 2 + 2 + 2 + 2 + 3 = 11)
+7. A -&gt; E -&gt; F -&gt; G -&gt; N -&gt; P (Cost: 2 + 2 + 2 + 3 = 9)
+The least cost path from node A to node P is the 7th path: A -&gt; E -&gt; F -&gt; G -&gt; N -&gt; P. Hence, the sequence of nodes is A -&gt; E -&gt; F -&gt; G -&gt; N -&gt; P.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node O:
+1. A - B - C - F - O (Cost: 5 + 4 + 4 + 3 = 16)
+2. A - B - E - F - O (Cost: 5 + 2 + 4 + 3 = 14)
+3. A - B - E - O (Cost: 5 + 2 + 4 = 11)
+4. A - D - E - F - O (Cost: 4 + 1 + 2 + 4 + 3 = 14)
+5. A - D - E - O (Cost: 4 + 1 + 2 + 4 = 11)
+6. A - D - H - J - O (Cost: 4 + 2 + 3 + 4 + 4 = 17)
+7. A - D - H - O (Cost: 4 + 2 + 3 = 9)
+8. A - D - I - J - O (Cost: 4 + 5 + 4 + 4 = 17)
+9. A - D - I - O (Cost: 4 + 5 = 9)
+10. A - D - J - O (Cost: 4 + 3 + 4 = 11)
+11. A - D - K - O (Cost: 4 + 4 = 8)
+12. A - D - L - O (Cost: 4 + 4 = 8)
+13. A - D - M - I - J - O (Cost: 4 + 4 + 4 + 5 + 4 = 21)
+14. A - D - M - I - O (Cost: 4 + 4 + 4 + 5 = 17)
+The least cost path from node A to node O is A - D - K - O, with a cost of 8.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node P are:
+1. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; P (Cost: 0+5+4+0+0+4 = 13)
+2. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O -&gt; P (Cost: 0+5+4+0+4+0 = 13)
+3. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; M -&gt; P (Cost: 0+5+4+0+4+5 = 18)
+4. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; O -&gt; H -&gt; P (Cost: 0+5+4+0+4+0+0 = 13)
+5. A -&gt; B -&gt; C -&gt; G -&gt; N -&gt; M -&gt; L -&gt; P (Cost: 0+5+4+0+4+5+0 = 18)
+The least cost path from node A to node P is path 1: A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; O -&gt; P with a cost of 13.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node P are:
+1. A-P (cost = 3)
+2. A-B-P (cost = 3+2 = 5)
+3. A-B-F-P (cost = 3+2+2 = 7)
+4. A-B-F-G-P (cost = 3+2+2+5 = 12)
+5. A-B-F-G-C-P (cost = 3+2+2+5+4 = 16)
+6. A-B-F-G-C-L-P (cost = 3+2+2+5+4+4 = 20)
+7. A-B-F-G-C-L-M-P (cost = 3+2+2+5+4+4+3 = 23)
+8. A-B-F-G-C-L-M-N-P (cost = 3+2+2+5+4+4+3+2 = 25)
+Therefore, the least cost path from node A to node P is A-B-P, with a cost of 5.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node P are:
+1) A -&gt; B -&gt; F -&gt; J -&gt; P (cost = 0 + 4 + 1 + 5 = 10)
+2) A -&gt; B -&gt; F -&gt; K -&gt; P (cost = 0 + 4 + 1 + 4 = 9)
+3) A -&gt; B -&gt; F -&gt; K -&gt; O -&gt; P (cost = 0 + 4 + 1 + 4 + 2 = 11)
+4) A -&gt; B -&gt; F -&gt; K -&gt; L -&gt; P (cost = 0 + 4 + 1 + 4 + 5 = 14)
+5) A -&gt; B -&gt; F -&gt; K -&gt; N -&gt; P (cost = 0 + 4 + 1 + 4 + 4 = 13)
+6) A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; P (cost = 1 + 2 + 4 + 4 = 11)
+7) A -&gt; E -&gt; I -&gt; M -&gt; O -&gt; P (cost = 1 + 2 + 4 + 2 = 9)
+8) A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; K -&gt; P (cost = 1 + 2 + 4 + 4 + 2 + 4 = 17)
+Since option 2 has the least cost, the least cost path from node A to node P is A -&gt; B -&gt; F -&gt; K -&gt; P.</t>
   </si>
 </sst>
 </file>
@@ -805,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -816,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -827,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -835,10 +829,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -846,10 +840,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -857,10 +851,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -868,10 +862,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -879,10 +873,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -890,10 +884,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -901,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
